--- a/data/pca/factorExposure/factorExposure_2018-11-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07177284376613192</v>
+        <v>0.04748345443698478</v>
       </c>
       <c r="C2">
-        <v>-0.0536718110809981</v>
+        <v>0.01140495911405506</v>
       </c>
       <c r="D2">
-        <v>0.07202464953021978</v>
+        <v>-0.02813825195034904</v>
       </c>
       <c r="E2">
-        <v>-0.009163259634648129</v>
+        <v>-0.01888801666807169</v>
       </c>
       <c r="F2">
-        <v>-0.1291628328290547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03414071810006861</v>
+      </c>
+      <c r="G2">
+        <v>0.1071660636988662</v>
+      </c>
+      <c r="H2">
+        <v>-0.07073597597919407</v>
+      </c>
+      <c r="I2">
+        <v>-0.1018208257320843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2016428405319078</v>
+        <v>0.1288027045004056</v>
       </c>
       <c r="C3">
-        <v>0.003195583654955319</v>
+        <v>-0.02429467183287323</v>
       </c>
       <c r="D3">
-        <v>0.1276519690428682</v>
+        <v>-0.05173997257458402</v>
       </c>
       <c r="E3">
-        <v>-0.03467980743196075</v>
+        <v>-0.01421948780543446</v>
       </c>
       <c r="F3">
-        <v>-0.3542750626913155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01272839377311093</v>
+      </c>
+      <c r="G3">
+        <v>0.3528846842937336</v>
+      </c>
+      <c r="H3">
+        <v>-0.229802551779821</v>
+      </c>
+      <c r="I3">
+        <v>-0.2032186290905287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.06489059400578887</v>
+        <v>0.05615737104143865</v>
       </c>
       <c r="C4">
-        <v>-0.02661275685955004</v>
+        <v>0.004216542318813187</v>
       </c>
       <c r="D4">
-        <v>0.0561567612616523</v>
+        <v>-0.04323402004542127</v>
       </c>
       <c r="E4">
-        <v>-0.05526885616070435</v>
+        <v>0.01435669521476048</v>
       </c>
       <c r="F4">
-        <v>-0.06401802276100435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05464810097650591</v>
+      </c>
+      <c r="G4">
+        <v>0.06247269207508364</v>
+      </c>
+      <c r="H4">
+        <v>-0.02547114525016507</v>
+      </c>
+      <c r="I4">
+        <v>-0.05632453143440896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.006394893105652217</v>
+        <v>0.0320423563818223</v>
       </c>
       <c r="C6">
-        <v>-0.002281387973924564</v>
+        <v>0.003298428300758535</v>
       </c>
       <c r="D6">
-        <v>0.001225000738392755</v>
+        <v>-0.0217001954360332</v>
       </c>
       <c r="E6">
-        <v>0.004743995072247642</v>
+        <v>0.002800934980414499</v>
       </c>
       <c r="F6">
-        <v>0.001435752571622433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02218110565124709</v>
+      </c>
+      <c r="G6">
+        <v>0.01265341047980476</v>
+      </c>
+      <c r="H6">
+        <v>0.03709463922679319</v>
+      </c>
+      <c r="I6">
+        <v>0.008145478409670764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03203320447590774</v>
+        <v>0.02816117655299995</v>
       </c>
       <c r="C7">
-        <v>-0.02151897720933228</v>
+        <v>0.002896490994241259</v>
       </c>
       <c r="D7">
-        <v>0.04424134375500964</v>
+        <v>-0.01031621543335661</v>
       </c>
       <c r="E7">
-        <v>-0.009734696859364195</v>
+        <v>0.03391530809545297</v>
       </c>
       <c r="F7">
-        <v>-0.06725765009416863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02674535635483051</v>
+      </c>
+      <c r="G7">
+        <v>0.05193209150687969</v>
+      </c>
+      <c r="H7">
+        <v>-0.04947367513174435</v>
+      </c>
+      <c r="I7">
+        <v>-0.01550174480072812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0388245022455422</v>
+        <v>0.01213616494306004</v>
       </c>
       <c r="C8">
-        <v>0.001922615056405528</v>
+        <v>-0.005110111809849481</v>
       </c>
       <c r="D8">
-        <v>0.04423872199057031</v>
+        <v>-0.04018721504276371</v>
       </c>
       <c r="E8">
-        <v>-0.04524606874257144</v>
+        <v>0.01038030948776336</v>
       </c>
       <c r="F8">
-        <v>-0.0853216958461023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01726878131854728</v>
+      </c>
+      <c r="G8">
+        <v>0.06934962502530936</v>
+      </c>
+      <c r="H8">
+        <v>-0.05470434272506009</v>
+      </c>
+      <c r="I8">
+        <v>-0.04969123375193414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05384198602241881</v>
+        <v>0.04459706647209194</v>
       </c>
       <c r="C9">
-        <v>-0.02585907998293803</v>
+        <v>-0.0005998890600099706</v>
       </c>
       <c r="D9">
-        <v>0.03866936759243907</v>
+        <v>-0.02994566052890779</v>
       </c>
       <c r="E9">
-        <v>-0.061017307133157</v>
+        <v>0.01497900719552588</v>
       </c>
       <c r="F9">
-        <v>-0.06308742914920515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.03779715802658012</v>
+      </c>
+      <c r="G9">
+        <v>0.07839029782812243</v>
+      </c>
+      <c r="H9">
+        <v>-0.02904509315335926</v>
+      </c>
+      <c r="I9">
+        <v>-0.04691079940458432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03479010364346301</v>
+        <v>0.05798846648678793</v>
       </c>
       <c r="C10">
-        <v>-0.08334094246363118</v>
+        <v>-9.044019809950995e-05</v>
       </c>
       <c r="D10">
-        <v>-0.1091770508092443</v>
+        <v>0.1615708194844823</v>
       </c>
       <c r="E10">
-        <v>0.095431300092399</v>
+        <v>-0.01781927146780329</v>
       </c>
       <c r="F10">
-        <v>-0.07176689854044385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0440261083071002</v>
+      </c>
+      <c r="G10">
+        <v>0.04674299011134826</v>
+      </c>
+      <c r="H10">
+        <v>-0.02875974988955188</v>
+      </c>
+      <c r="I10">
+        <v>-0.03938252766057053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04511652137440098</v>
+        <v>0.0336632719921473</v>
       </c>
       <c r="C11">
-        <v>-0.005069778786607203</v>
+        <v>-0.01117579514063733</v>
       </c>
       <c r="D11">
-        <v>0.0316219926545768</v>
+        <v>-0.032756590172098</v>
       </c>
       <c r="E11">
-        <v>-0.01333052913608881</v>
+        <v>-0.00603062895125567</v>
       </c>
       <c r="F11">
-        <v>-0.041460581155358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01124958567565721</v>
+      </c>
+      <c r="G11">
+        <v>0.04583214569788566</v>
+      </c>
+      <c r="H11">
+        <v>-0.009460132839073793</v>
+      </c>
+      <c r="I11">
+        <v>-0.02820399086749812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04484630846389905</v>
+        <v>0.03824794965106493</v>
       </c>
       <c r="C12">
-        <v>-0.006655715437410096</v>
+        <v>-0.008167848426854016</v>
       </c>
       <c r="D12">
-        <v>0.02887725003540595</v>
+        <v>-0.03281075372063007</v>
       </c>
       <c r="E12">
-        <v>-0.03208221822668031</v>
+        <v>0.005292443001571807</v>
       </c>
       <c r="F12">
-        <v>-0.02494283765473777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02000840262707704</v>
+      </c>
+      <c r="G12">
+        <v>0.01594916856998673</v>
+      </c>
+      <c r="H12">
+        <v>-0.005166845409479513</v>
+      </c>
+      <c r="I12">
+        <v>-0.01571603128900076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04843372251800778</v>
+        <v>0.03587074874846487</v>
       </c>
       <c r="C13">
-        <v>-0.02045327365086425</v>
+        <v>0.01325784202841998</v>
       </c>
       <c r="D13">
-        <v>0.0505200324322535</v>
+        <v>-0.01971938921400919</v>
       </c>
       <c r="E13">
-        <v>0.01344898320777181</v>
+        <v>-0.01894601270299813</v>
       </c>
       <c r="F13">
-        <v>-0.1091999425539015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01338296088901161</v>
+      </c>
+      <c r="G13">
+        <v>0.08958205100592312</v>
+      </c>
+      <c r="H13">
+        <v>-0.03547627129017889</v>
+      </c>
+      <c r="I13">
+        <v>-0.06336790610488609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02476282960341514</v>
+        <v>0.0202100267779483</v>
       </c>
       <c r="C14">
-        <v>-0.01743922474776275</v>
+        <v>0.0005996355547136819</v>
       </c>
       <c r="D14">
-        <v>0.03992402199242674</v>
+        <v>-0.01450145159760031</v>
       </c>
       <c r="E14">
-        <v>-0.02269576371543579</v>
+        <v>0.005648334705099387</v>
       </c>
       <c r="F14">
-        <v>-0.03979515834104645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02885294710549507</v>
+      </c>
+      <c r="G14">
+        <v>0.04079945318706259</v>
+      </c>
+      <c r="H14">
+        <v>-0.06587049923032207</v>
+      </c>
+      <c r="I14">
+        <v>-0.02436256858046867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03710235325133487</v>
+        <v>0.03179099503038469</v>
       </c>
       <c r="C16">
-        <v>-0.00523212038315714</v>
+        <v>-0.01057649562706109</v>
       </c>
       <c r="D16">
-        <v>0.02743725319953384</v>
+        <v>-0.03092987361474103</v>
       </c>
       <c r="E16">
-        <v>-0.01389031540494801</v>
+        <v>-0.0007181812709610214</v>
       </c>
       <c r="F16">
-        <v>-0.03043943928592088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01819838014529516</v>
+      </c>
+      <c r="G16">
+        <v>0.03420792528250509</v>
+      </c>
+      <c r="H16">
+        <v>-0.008171585148203828</v>
+      </c>
+      <c r="I16">
+        <v>-0.02134146739742495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05580107322191594</v>
+        <v>0.04092288157162422</v>
       </c>
       <c r="C19">
-        <v>0.0008569830295973936</v>
+        <v>-8.665154022913853e-05</v>
       </c>
       <c r="D19">
-        <v>0.04091078344173155</v>
+        <v>-0.03522731643143689</v>
       </c>
       <c r="E19">
-        <v>-0.006659693442556334</v>
+        <v>-0.006215081207701872</v>
       </c>
       <c r="F19">
-        <v>-0.07568781664653561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0181153651453192</v>
+      </c>
+      <c r="G19">
+        <v>0.08422790137539096</v>
+      </c>
+      <c r="H19">
+        <v>-0.04862601983948067</v>
+      </c>
+      <c r="I19">
+        <v>-0.05361802345554213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01670165868251091</v>
+        <v>0.01162614528141862</v>
       </c>
       <c r="C20">
-        <v>-0.01031101741537901</v>
+        <v>0.005321792666134704</v>
       </c>
       <c r="D20">
-        <v>0.0434903049384599</v>
+        <v>-0.01972698260002285</v>
       </c>
       <c r="E20">
-        <v>-0.03342930171692761</v>
+        <v>0.002978884818604042</v>
       </c>
       <c r="F20">
-        <v>-0.05567448741124946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01925884450420978</v>
+      </c>
+      <c r="G20">
+        <v>0.05314036447229244</v>
+      </c>
+      <c r="H20">
+        <v>-0.05788418711261735</v>
+      </c>
+      <c r="I20">
+        <v>-0.03903730638314942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01521245464998243</v>
+        <v>0.02339441840037471</v>
       </c>
       <c r="C21">
-        <v>0.007412713920988068</v>
+        <v>0.009341881409052996</v>
       </c>
       <c r="D21">
-        <v>0.03889702234424472</v>
+        <v>-0.01941129222729033</v>
       </c>
       <c r="E21">
-        <v>-0.01633042435147246</v>
+        <v>0.0106894564477125</v>
       </c>
       <c r="F21">
-        <v>-0.09466672433914627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.006862095496749107</v>
+      </c>
+      <c r="G21">
+        <v>0.07293012030212442</v>
+      </c>
+      <c r="H21">
+        <v>-0.03644134744474029</v>
+      </c>
+      <c r="I21">
+        <v>-0.05884248159148976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03427159684977093</v>
+        <v>0.03018271223058105</v>
       </c>
       <c r="C24">
-        <v>-0.004929649345798835</v>
+        <v>-0.006508886915243833</v>
       </c>
       <c r="D24">
-        <v>0.02487612344618519</v>
+        <v>-0.02807333497938102</v>
       </c>
       <c r="E24">
-        <v>-0.01480799647923965</v>
+        <v>-0.0003068218779519014</v>
       </c>
       <c r="F24">
-        <v>-0.04028445813260345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01360075880634741</v>
+      </c>
+      <c r="G24">
+        <v>0.03657611793126464</v>
+      </c>
+      <c r="H24">
+        <v>-0.004845732540382191</v>
+      </c>
+      <c r="I24">
+        <v>-0.0268145943071198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0390565536019784</v>
+        <v>0.0396378037264028</v>
       </c>
       <c r="C25">
-        <v>-0.005705604811499228</v>
+        <v>-0.002650017400914521</v>
       </c>
       <c r="D25">
-        <v>0.02795114598594152</v>
+        <v>-0.02983791459179692</v>
       </c>
       <c r="E25">
-        <v>-0.0204566126465736</v>
+        <v>-5.114349206994749e-05</v>
       </c>
       <c r="F25">
-        <v>-0.05008389037865248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01709594820875617</v>
+      </c>
+      <c r="G25">
+        <v>0.04470918640782331</v>
+      </c>
+      <c r="H25">
+        <v>0.0002154371696660907</v>
+      </c>
+      <c r="I25">
+        <v>-0.02787242329144891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01750368412036969</v>
+        <v>0.01428393279115517</v>
       </c>
       <c r="C26">
-        <v>0.005655642856639261</v>
+        <v>0.02014188429573108</v>
       </c>
       <c r="D26">
-        <v>0.04972574681860218</v>
+        <v>-0.02199184536913923</v>
       </c>
       <c r="E26">
-        <v>-0.00133241485379551</v>
+        <v>-0.005597348934599075</v>
       </c>
       <c r="F26">
-        <v>-0.05006333588065716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.003995594471982658</v>
+      </c>
+      <c r="G26">
+        <v>0.0492871602300808</v>
+      </c>
+      <c r="H26">
+        <v>-0.04118645301709178</v>
+      </c>
+      <c r="I26">
+        <v>-0.02686333481592654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1021855147474214</v>
+        <v>0.05420323683790781</v>
       </c>
       <c r="C27">
-        <v>-0.04218199689520156</v>
+        <v>-0.01605827462844905</v>
       </c>
       <c r="D27">
-        <v>0.03501521617978211</v>
+        <v>-0.01459911396559151</v>
       </c>
       <c r="E27">
-        <v>-0.03517527357524838</v>
+        <v>-0.0006401353986348327</v>
       </c>
       <c r="F27">
-        <v>-0.05732037939120319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02389162054150645</v>
+      </c>
+      <c r="G27">
+        <v>0.04475472435730907</v>
+      </c>
+      <c r="H27">
+        <v>-0.03425240035110653</v>
+      </c>
+      <c r="I27">
+        <v>-0.03112963496917647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0491417525752097</v>
+        <v>0.085891702140415</v>
       </c>
       <c r="C28">
-        <v>-0.1055203440698276</v>
+        <v>0.009363494331354017</v>
       </c>
       <c r="D28">
-        <v>-0.180972459478959</v>
+        <v>0.2456600910165305</v>
       </c>
       <c r="E28">
-        <v>0.1332813700233221</v>
+        <v>-0.01867973359688274</v>
       </c>
       <c r="F28">
-        <v>-0.04658333026656217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.06558478319634389</v>
+      </c>
+      <c r="G28">
+        <v>0.02452367062399224</v>
+      </c>
+      <c r="H28">
+        <v>-0.04953226810440773</v>
+      </c>
+      <c r="I28">
+        <v>-0.04109656640812244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02417647201028975</v>
+        <v>0.02072112845053236</v>
       </c>
       <c r="C29">
-        <v>-0.0114972055402578</v>
+        <v>0.0003502035515577028</v>
       </c>
       <c r="D29">
-        <v>0.03949807344824192</v>
+        <v>-0.01598781774455587</v>
       </c>
       <c r="E29">
-        <v>-0.03526476021970294</v>
+        <v>0.007835620695519099</v>
       </c>
       <c r="F29">
-        <v>-0.02527218662164956</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03076883051400285</v>
+      </c>
+      <c r="G29">
+        <v>0.03581957741297567</v>
+      </c>
+      <c r="H29">
+        <v>-0.06617137342335032</v>
+      </c>
+      <c r="I29">
+        <v>-0.01700460570649319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09527273499865858</v>
+        <v>0.07617972014443611</v>
       </c>
       <c r="C30">
-        <v>-0.05321961358700023</v>
+        <v>0.0004341475732426887</v>
       </c>
       <c r="D30">
-        <v>0.06652587817284193</v>
+        <v>-0.05018633906502331</v>
       </c>
       <c r="E30">
-        <v>-0.02003050783631658</v>
+        <v>-0.04397990526290392</v>
       </c>
       <c r="F30">
-        <v>-0.09165525182837149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05435112350828321</v>
+      </c>
+      <c r="G30">
+        <v>0.09676476099373368</v>
+      </c>
+      <c r="H30">
+        <v>-0.008851068068132323</v>
+      </c>
+      <c r="I30">
+        <v>-0.0008955372411231543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06181276393835867</v>
+        <v>0.05558971807616189</v>
       </c>
       <c r="C31">
-        <v>-0.0179415502609765</v>
+        <v>-0.01230917810315404</v>
       </c>
       <c r="D31">
-        <v>0.03368610724422096</v>
+        <v>-0.01419937074662001</v>
       </c>
       <c r="E31">
-        <v>0.027458560798378</v>
+        <v>-0.01060441205658536</v>
       </c>
       <c r="F31">
-        <v>-0.004378212723691205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01422728178457662</v>
+      </c>
+      <c r="G31">
+        <v>0.01403986280043574</v>
+      </c>
+      <c r="H31">
+        <v>-0.06106133982551773</v>
+      </c>
+      <c r="I31">
+        <v>-0.04484714998388002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0502002534891275</v>
+        <v>0.02333259608706799</v>
       </c>
       <c r="C32">
-        <v>-0.01982471835542113</v>
+        <v>-0.01661293187701085</v>
       </c>
       <c r="D32">
-        <v>0.04948840481075708</v>
+        <v>-0.0297214384492986</v>
       </c>
       <c r="E32">
-        <v>-0.03714656358880162</v>
+        <v>0.01289602547808641</v>
       </c>
       <c r="F32">
-        <v>-0.06854383199814967</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04550222523594737</v>
+      </c>
+      <c r="G32">
+        <v>0.07677455528103393</v>
+      </c>
+      <c r="H32">
+        <v>-0.008853311334681282</v>
+      </c>
+      <c r="I32">
+        <v>-0.03858218897736054</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05311552715394748</v>
+        <v>0.04310190064022237</v>
       </c>
       <c r="C33">
-        <v>0.002358321728220396</v>
+        <v>-0.001695679281637301</v>
       </c>
       <c r="D33">
-        <v>0.07295444595042205</v>
+        <v>-0.04524214316551975</v>
       </c>
       <c r="E33">
-        <v>-0.01609415475957709</v>
+        <v>-0.0224569675707826</v>
       </c>
       <c r="F33">
-        <v>-0.08796781434523114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.008051560460732216</v>
+      </c>
+      <c r="G33">
+        <v>0.07587890187520258</v>
+      </c>
+      <c r="H33">
+        <v>-0.05063908583549256</v>
+      </c>
+      <c r="I33">
+        <v>-0.04893268892520238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.03880679680344196</v>
+        <v>0.03324302519471289</v>
       </c>
       <c r="C34">
-        <v>-0.0123605379123875</v>
+        <v>-0.02000544063305864</v>
       </c>
       <c r="D34">
-        <v>0.03184808695057284</v>
+        <v>-0.02982226632070804</v>
       </c>
       <c r="E34">
-        <v>-0.02012468355874483</v>
+        <v>0.004441329102252412</v>
       </c>
       <c r="F34">
-        <v>-0.04135212257452114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0241229161597017</v>
+      </c>
+      <c r="G34">
+        <v>0.03925712525137654</v>
+      </c>
+      <c r="H34">
+        <v>-0.004440885605627727</v>
+      </c>
+      <c r="I34">
+        <v>-0.02665435255202096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01612640271130015</v>
+        <v>0.01811833507906574</v>
       </c>
       <c r="C36">
-        <v>-0.01329162749815931</v>
+        <v>0.006348115152325333</v>
       </c>
       <c r="D36">
-        <v>0.008099573163510149</v>
+        <v>0.001643939575969578</v>
       </c>
       <c r="E36">
-        <v>-0.006440750137597851</v>
+        <v>0.001567801263387875</v>
       </c>
       <c r="F36">
-        <v>-0.03167527753127928</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01027647592287987</v>
+      </c>
+      <c r="G36">
+        <v>0.03270353400924601</v>
+      </c>
+      <c r="H36">
+        <v>-0.03771431485434371</v>
+      </c>
+      <c r="I36">
+        <v>-0.01882825220409914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.009956375730977239</v>
+        <v>0.01797824859064801</v>
       </c>
       <c r="C38">
-        <v>-0.006269633398955417</v>
+        <v>-0.01414308004891559</v>
       </c>
       <c r="D38">
-        <v>-0.009950693567656748</v>
+        <v>-0.00132983056292046</v>
       </c>
       <c r="E38">
-        <v>-0.005229112636903548</v>
+        <v>0.003358407455805338</v>
       </c>
       <c r="F38">
-        <v>-0.03282416432987549</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001099369876861544</v>
+      </c>
+      <c r="G38">
+        <v>0.04251441301527983</v>
+      </c>
+      <c r="H38">
+        <v>-0.02528937209707335</v>
+      </c>
+      <c r="I38">
+        <v>-0.03237650163192793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05282998199580567</v>
+        <v>0.03887969292890037</v>
       </c>
       <c r="C39">
-        <v>-0.01118803933713353</v>
+        <v>-0.009084350543889253</v>
       </c>
       <c r="D39">
-        <v>0.04895530285043556</v>
+        <v>-0.0520961750183587</v>
       </c>
       <c r="E39">
-        <v>-0.00981251101143777</v>
+        <v>-0.005835048317918094</v>
       </c>
       <c r="F39">
-        <v>-0.03683484795154577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.02869942507360187</v>
+      </c>
+      <c r="G39">
+        <v>0.05492380430836352</v>
+      </c>
+      <c r="H39">
+        <v>0.00576499432552979</v>
+      </c>
+      <c r="I39">
+        <v>-0.02780648439586677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05541693824476912</v>
+        <v>0.04491050194473636</v>
       </c>
       <c r="C40">
-        <v>-0.03329353492285914</v>
+        <v>-0.002556377547594353</v>
       </c>
       <c r="D40">
-        <v>0.07694066663182102</v>
+        <v>-0.03835233469388637</v>
       </c>
       <c r="E40">
-        <v>0.007574123966562677</v>
+        <v>-0.0249016472245818</v>
       </c>
       <c r="F40">
-        <v>-0.07797073161821957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03315040400069012</v>
+      </c>
+      <c r="G40">
+        <v>0.07220286264765577</v>
+      </c>
+      <c r="H40">
+        <v>-0.03537714876467207</v>
+      </c>
+      <c r="I40">
+        <v>-0.073134031885533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01196394017001198</v>
+        <v>0.0004456022282676309</v>
       </c>
       <c r="C41">
-        <v>0.006351899807301757</v>
+        <v>0.003141718912312227</v>
       </c>
       <c r="D41">
-        <v>0.02484261105246818</v>
+        <v>-0.002413033495404007</v>
       </c>
       <c r="E41">
-        <v>-0.01896229599919486</v>
+        <v>0.0003079778349338716</v>
       </c>
       <c r="F41">
-        <v>-0.002261055556318914</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004962606813313382</v>
+      </c>
+      <c r="G41">
+        <v>0.007834848828202233</v>
+      </c>
+      <c r="H41">
+        <v>-0.05619995472854468</v>
+      </c>
+      <c r="I41">
+        <v>-0.03851405820759082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3641004818871921</v>
+        <v>0.2490861035598727</v>
       </c>
       <c r="C42">
-        <v>0.8610058414907725</v>
+        <v>0.07495652967807336</v>
       </c>
       <c r="D42">
-        <v>-0.1506171975582572</v>
+        <v>-0.3584593499995766</v>
       </c>
       <c r="E42">
-        <v>0.2630144123968413</v>
+        <v>-0.02472165151875783</v>
       </c>
       <c r="F42">
-        <v>0.04936460299538235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8697749778175893</v>
+      </c>
+      <c r="G42">
+        <v>-0.1414653317097452</v>
+      </c>
+      <c r="H42">
+        <v>0.01006686697820132</v>
+      </c>
+      <c r="I42">
+        <v>0.004337189301734841</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01182976879167516</v>
+        <v>2.174102013787297e-05</v>
       </c>
       <c r="C43">
-        <v>0.00351266847715725</v>
+        <v>0.007143729171942228</v>
       </c>
       <c r="D43">
-        <v>0.02640059424642157</v>
+        <v>-0.002297904574727252</v>
       </c>
       <c r="E43">
-        <v>-0.009418974378883654</v>
+        <v>-0.003178291952473935</v>
       </c>
       <c r="F43">
-        <v>-0.02855098582649839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003141151962428236</v>
+      </c>
+      <c r="G43">
+        <v>0.02058088298910529</v>
+      </c>
+      <c r="H43">
+        <v>-0.04916850716928636</v>
+      </c>
+      <c r="I43">
+        <v>-0.02764022197403875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03032184680207059</v>
+        <v>0.01516706970730423</v>
       </c>
       <c r="C44">
-        <v>-0.0001382506140391849</v>
+        <v>0.0001434428908277479</v>
       </c>
       <c r="D44">
-        <v>0.05934674615742749</v>
+        <v>-0.02767290764577668</v>
       </c>
       <c r="E44">
-        <v>-0.02222203554928477</v>
+        <v>0.002166737820741858</v>
       </c>
       <c r="F44">
-        <v>-0.1442348372438058</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.005902165853145272</v>
+      </c>
+      <c r="G44">
+        <v>0.1162699697988625</v>
+      </c>
+      <c r="H44">
+        <v>-0.09428892350304638</v>
+      </c>
+      <c r="I44">
+        <v>-0.06200254704789147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02592057670797027</v>
+        <v>0.02034293256358516</v>
       </c>
       <c r="C46">
-        <v>-0.009108543489501592</v>
+        <v>0.002772794567653527</v>
       </c>
       <c r="D46">
-        <v>0.05450640216880498</v>
+        <v>-0.02957423401982912</v>
       </c>
       <c r="E46">
-        <v>-0.02447469636944092</v>
+        <v>-0.004656368788867656</v>
       </c>
       <c r="F46">
-        <v>-0.02153841401462075</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03469185451706616</v>
+      </c>
+      <c r="G46">
+        <v>0.04882352226026652</v>
+      </c>
+      <c r="H46">
+        <v>-0.06658633787544857</v>
+      </c>
+      <c r="I46">
+        <v>-0.01612849401785344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0928638021714011</v>
+        <v>0.08318388734587423</v>
       </c>
       <c r="C47">
-        <v>-0.02847086887314842</v>
+        <v>-0.02724100890806913</v>
       </c>
       <c r="D47">
-        <v>0.03452440977458623</v>
+        <v>-0.02320912392392437</v>
       </c>
       <c r="E47">
-        <v>-0.01527106386122094</v>
+        <v>-0.005866323880477762</v>
       </c>
       <c r="F47">
-        <v>0.01866818439944626</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02719182881546321</v>
+      </c>
+      <c r="G47">
+        <v>-0.01721217598512187</v>
+      </c>
+      <c r="H47">
+        <v>-0.07317311766911511</v>
+      </c>
+      <c r="I47">
+        <v>-0.04151311563714634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01235547949902176</v>
+        <v>0.01797164079950531</v>
       </c>
       <c r="C48">
-        <v>-0.008268239651072675</v>
+        <v>-0.004590653315699502</v>
       </c>
       <c r="D48">
-        <v>0.02993661469806849</v>
+        <v>-0.008348875183763944</v>
       </c>
       <c r="E48">
-        <v>-0.01241215699440855</v>
+        <v>-0.0007105949568502759</v>
       </c>
       <c r="F48">
-        <v>-0.04290870765891891</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01220389483997662</v>
+      </c>
+      <c r="G48">
+        <v>0.03521580374619908</v>
+      </c>
+      <c r="H48">
+        <v>-0.03382040720928275</v>
+      </c>
+      <c r="I48">
+        <v>-0.0159944348825379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09021268479526783</v>
+        <v>0.07884391479404972</v>
       </c>
       <c r="C50">
-        <v>-0.007414292814539325</v>
+        <v>-0.02242491009276213</v>
       </c>
       <c r="D50">
-        <v>0.03836929253496305</v>
+        <v>-0.03719316099659386</v>
       </c>
       <c r="E50">
-        <v>-0.003398066843088415</v>
+        <v>0.007379183183156607</v>
       </c>
       <c r="F50">
-        <v>0.00640508105056238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0126847608551636</v>
+      </c>
+      <c r="G50">
+        <v>0.01121804657497094</v>
+      </c>
+      <c r="H50">
+        <v>-0.05799050466791407</v>
+      </c>
+      <c r="I50">
+        <v>0.0178219513801286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04570640963987484</v>
+        <v>0.02504440521084431</v>
       </c>
       <c r="C51">
-        <v>-0.002263053341565653</v>
+        <v>0.002111416638664709</v>
       </c>
       <c r="D51">
-        <v>0.02348209272568818</v>
+        <v>0.007399966095662267</v>
       </c>
       <c r="E51">
-        <v>0.04132383287745026</v>
+        <v>-0.01168458389702364</v>
       </c>
       <c r="F51">
-        <v>-0.1006862725159112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01469148059056461</v>
+      </c>
+      <c r="G51">
+        <v>0.08814230373301835</v>
+      </c>
+      <c r="H51">
+        <v>-0.08202216030675401</v>
+      </c>
+      <c r="I51">
+        <v>-0.06398857134939802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1175197110434573</v>
+        <v>0.1094914480347271</v>
       </c>
       <c r="C53">
-        <v>-0.02722323833630256</v>
+        <v>-0.03755068298733118</v>
       </c>
       <c r="D53">
-        <v>0.07107008855982939</v>
+        <v>-0.05525700807198677</v>
       </c>
       <c r="E53">
-        <v>-0.01888496429716338</v>
+        <v>-0.0054995590294742</v>
       </c>
       <c r="F53">
-        <v>0.07634453578593017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05406895570541333</v>
+      </c>
+      <c r="G53">
+        <v>-0.05498122331012441</v>
+      </c>
+      <c r="H53">
+        <v>-0.02713958571577458</v>
+      </c>
+      <c r="I53">
+        <v>-0.03129545366487956</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02002437801722106</v>
+        <v>0.02060279067623152</v>
       </c>
       <c r="C54">
-        <v>-0.02298967781876541</v>
+        <v>-0.008649985292433215</v>
       </c>
       <c r="D54">
-        <v>0.02492632855855365</v>
+        <v>0.004589269381714147</v>
       </c>
       <c r="E54">
-        <v>-0.01866931784603975</v>
+        <v>0.002369585811647043</v>
       </c>
       <c r="F54">
-        <v>-0.04434966523506175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02365929738529213</v>
+      </c>
+      <c r="G54">
+        <v>0.04211773177853502</v>
+      </c>
+      <c r="H54">
+        <v>-0.0720302192337702</v>
+      </c>
+      <c r="I54">
+        <v>-0.02640852507630581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1016738697122117</v>
+        <v>0.09223060432193779</v>
       </c>
       <c r="C55">
-        <v>-0.02678483783559923</v>
+        <v>-0.03369092505383699</v>
       </c>
       <c r="D55">
-        <v>0.01844308573213307</v>
+        <v>-0.04525176137254553</v>
       </c>
       <c r="E55">
-        <v>-0.04394246686976445</v>
+        <v>0.009485560906020311</v>
       </c>
       <c r="F55">
-        <v>0.06272992227481132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04249736747755944</v>
+      </c>
+      <c r="G55">
+        <v>-0.04594918217242273</v>
+      </c>
+      <c r="H55">
+        <v>-0.03715055147389425</v>
+      </c>
+      <c r="I55">
+        <v>0.001312630157303713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1375407770707012</v>
+        <v>0.1439034777021334</v>
       </c>
       <c r="C56">
-        <v>-0.06609058898210392</v>
+        <v>-0.05514874007464766</v>
       </c>
       <c r="D56">
-        <v>0.04869336326371302</v>
+        <v>-0.04917958929940225</v>
       </c>
       <c r="E56">
-        <v>-0.04780921042831282</v>
+        <v>-0.0007025448565409422</v>
       </c>
       <c r="F56">
-        <v>0.1357259461933001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07902640772880584</v>
+      </c>
+      <c r="G56">
+        <v>-0.1012948056303055</v>
+      </c>
+      <c r="H56">
+        <v>0.004805245854680477</v>
+      </c>
+      <c r="I56">
+        <v>0.003014827496015953</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.05920839792805416</v>
+        <v>0.05339122030624754</v>
       </c>
       <c r="C57">
-        <v>-0.01852795003655099</v>
+        <v>0.007672415185614123</v>
       </c>
       <c r="D57">
-        <v>0.04676230906327696</v>
+        <v>-0.02560603288135336</v>
       </c>
       <c r="E57">
-        <v>0.01150075277993786</v>
+        <v>-0.01793221651477334</v>
       </c>
       <c r="F57">
-        <v>-0.07390280765975303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.006564729200932828</v>
+      </c>
+      <c r="G57">
+        <v>0.05813563117432016</v>
+      </c>
+      <c r="H57">
+        <v>-0.02931425300895162</v>
+      </c>
+      <c r="I57">
+        <v>-0.0348874054394982</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2212156025535946</v>
+        <v>0.1765242982156144</v>
       </c>
       <c r="C58">
-        <v>-0.04788709642778673</v>
+        <v>-0.04555722044619052</v>
       </c>
       <c r="D58">
-        <v>0.1344387627208537</v>
+        <v>-0.09555997067580356</v>
       </c>
       <c r="E58">
-        <v>-0.007811364253193425</v>
+        <v>-0.1103397004044518</v>
       </c>
       <c r="F58">
-        <v>-0.1880927172921769</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.01017366569849725</v>
+      </c>
+      <c r="G58">
+        <v>0.4143886550300027</v>
+      </c>
+      <c r="H58">
+        <v>-0.3472022704513996</v>
+      </c>
+      <c r="I58">
+        <v>0.6382643279201056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.04875106258957223</v>
+        <v>0.08770744937381224</v>
       </c>
       <c r="C59">
-        <v>-0.1225772234744219</v>
+        <v>0.005433950800290112</v>
       </c>
       <c r="D59">
-        <v>-0.126912476797003</v>
+        <v>0.2154010348087176</v>
       </c>
       <c r="E59">
-        <v>0.08255980849246687</v>
+        <v>-0.03357371655700109</v>
       </c>
       <c r="F59">
-        <v>-0.02960730798736793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.02536182105635523</v>
+      </c>
+      <c r="G59">
+        <v>0.04639116790417747</v>
+      </c>
+      <c r="H59">
+        <v>-0.0229070090981445</v>
+      </c>
+      <c r="I59">
+        <v>-0.0216320736563528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1709849528033002</v>
+        <v>0.1889341652784761</v>
       </c>
       <c r="C60">
-        <v>-0.08435072125283971</v>
+        <v>-0.02768782198866468</v>
       </c>
       <c r="D60">
-        <v>0.0163206720569826</v>
+        <v>0.03099580633564187</v>
       </c>
       <c r="E60">
-        <v>0.08308653113272946</v>
+        <v>-0.07098585855330598</v>
       </c>
       <c r="F60">
-        <v>-0.1598193698678838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.02256992226858111</v>
+      </c>
+      <c r="G60">
+        <v>0.1999703013246465</v>
+      </c>
+      <c r="H60">
+        <v>0.3641395569626372</v>
+      </c>
+      <c r="I60">
+        <v>-0.05209410834982944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03260848616836087</v>
+        <v>0.03310451810255101</v>
       </c>
       <c r="C61">
-        <v>-0.009331303190277963</v>
+        <v>-0.01085509733564566</v>
       </c>
       <c r="D61">
-        <v>0.01954852825299009</v>
+        <v>-0.03316202476883037</v>
       </c>
       <c r="E61">
-        <v>-0.01692265473685461</v>
+        <v>0.0002392353202979734</v>
       </c>
       <c r="F61">
-        <v>-0.03497215995914753</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02364364273724501</v>
+      </c>
+      <c r="G61">
+        <v>0.04084513871979713</v>
+      </c>
+      <c r="H61">
+        <v>0.01228246121449236</v>
+      </c>
+      <c r="I61">
+        <v>-0.01812891211603183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.02392241419661264</v>
+        <v>0.0215686127061481</v>
       </c>
       <c r="C63">
-        <v>-0.02005401221070771</v>
+        <v>-0.0001931468673374805</v>
       </c>
       <c r="D63">
-        <v>0.04536004002307995</v>
+        <v>-0.02258859672487265</v>
       </c>
       <c r="E63">
-        <v>-0.02212804338187002</v>
+        <v>-0.001195531641241945</v>
       </c>
       <c r="F63">
-        <v>-0.03556263317087903</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02272375266646108</v>
+      </c>
+      <c r="G63">
+        <v>0.03088180778054661</v>
+      </c>
+      <c r="H63">
+        <v>-0.05392621252952391</v>
+      </c>
+      <c r="I63">
+        <v>-0.01203686600782026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05095131806251602</v>
+        <v>0.04859326637177568</v>
       </c>
       <c r="C64">
-        <v>-0.00781352183091171</v>
+        <v>-0.01276827662476324</v>
       </c>
       <c r="D64">
-        <v>0.0449322687888439</v>
+        <v>-0.04137700766590825</v>
       </c>
       <c r="E64">
-        <v>-0.05905214996215359</v>
+        <v>0.009131938506078111</v>
       </c>
       <c r="F64">
-        <v>-0.0581081651056914</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02655225980074565</v>
+      </c>
+      <c r="G64">
+        <v>0.03984701125496532</v>
+      </c>
+      <c r="H64">
+        <v>-0.03426316511190371</v>
+      </c>
+      <c r="I64">
+        <v>-0.06730408387442113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.005928245794524689</v>
+        <v>0.03754085052270355</v>
       </c>
       <c r="C65">
-        <v>-0.001388026194971422</v>
+        <v>0.003584536245991898</v>
       </c>
       <c r="D65">
-        <v>0.0003922503687049303</v>
+        <v>-0.02308281812404136</v>
       </c>
       <c r="E65">
-        <v>0.005527718469018911</v>
+        <v>0.002807565120085309</v>
       </c>
       <c r="F65">
-        <v>0.000412976800850562</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02349692796552227</v>
+      </c>
+      <c r="G65">
+        <v>0.007117197312174862</v>
+      </c>
+      <c r="H65">
+        <v>0.0434606374406185</v>
+      </c>
+      <c r="I65">
+        <v>0.00451161752527966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.04976867364265668</v>
+        <v>0.04719633651628812</v>
       </c>
       <c r="C66">
-        <v>-0.02457779726510836</v>
+        <v>-0.01262600283019055</v>
       </c>
       <c r="D66">
-        <v>0.06012200103721459</v>
+        <v>-0.05878357763123458</v>
       </c>
       <c r="E66">
-        <v>-0.02785357963537386</v>
+        <v>-0.01331455730790682</v>
       </c>
       <c r="F66">
-        <v>-0.08087909023758388</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05538335314052851</v>
+      </c>
+      <c r="G66">
+        <v>0.06533748183237664</v>
+      </c>
+      <c r="H66">
+        <v>0.01784302280297318</v>
+      </c>
+      <c r="I66">
+        <v>-0.03247502856818962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02756086759764444</v>
+        <v>0.03637615029675206</v>
       </c>
       <c r="C67">
-        <v>-0.0177382011829173</v>
+        <v>-0.01438797762289225</v>
       </c>
       <c r="D67">
-        <v>-0.02143784260538844</v>
+        <v>0.009704670281052197</v>
       </c>
       <c r="E67">
-        <v>0.01057076696118337</v>
+        <v>-0.001994268417994698</v>
       </c>
       <c r="F67">
-        <v>-0.04103445592305571</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.003903201704378079</v>
+      </c>
+      <c r="G67">
+        <v>0.03668716394720228</v>
+      </c>
+      <c r="H67">
+        <v>-0.00515235603295115</v>
+      </c>
+      <c r="I67">
+        <v>-0.04967099437888101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06156081914756153</v>
+        <v>0.09267323857483026</v>
       </c>
       <c r="C68">
-        <v>-0.115339222481345</v>
+        <v>0.02489650243987474</v>
       </c>
       <c r="D68">
-        <v>-0.1823773997726378</v>
+        <v>0.2345963273399061</v>
       </c>
       <c r="E68">
-        <v>0.1247009987297596</v>
+        <v>-0.02845646232176253</v>
       </c>
       <c r="F68">
-        <v>0.01445203535651382</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05563060334242396</v>
+      </c>
+      <c r="G68">
+        <v>0.003596077376851494</v>
+      </c>
+      <c r="H68">
+        <v>-0.04093055622036654</v>
+      </c>
+      <c r="I68">
+        <v>0.03719350583349636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07444752977222985</v>
+        <v>0.06773580108655151</v>
       </c>
       <c r="C69">
-        <v>-0.03279522500316643</v>
+        <v>-0.02652571322974557</v>
       </c>
       <c r="D69">
-        <v>0.02193555729724337</v>
+        <v>-0.01579841381725017</v>
       </c>
       <c r="E69">
-        <v>0.004815783038612683</v>
+        <v>-0.009435650827499363</v>
       </c>
       <c r="F69">
-        <v>0.0007490690208741779</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02467393943133513</v>
+      </c>
+      <c r="G69">
+        <v>0.0008770859046715472</v>
+      </c>
+      <c r="H69">
+        <v>-0.04844463453146005</v>
+      </c>
+      <c r="I69">
+        <v>-0.04010688857071372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.059939941805898</v>
+        <v>0.09029397657868199</v>
       </c>
       <c r="C71">
-        <v>-0.1372687058875124</v>
+        <v>0.01571675223083612</v>
       </c>
       <c r="D71">
-        <v>-0.2275186233440159</v>
+        <v>0.2549843823084451</v>
       </c>
       <c r="E71">
-        <v>0.2074620975345594</v>
+        <v>-0.03521807667356903</v>
       </c>
       <c r="F71">
-        <v>-0.04816091050666041</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07804409860783428</v>
+      </c>
+      <c r="G71">
+        <v>0.02209035448151128</v>
+      </c>
+      <c r="H71">
+        <v>-0.02032033747111502</v>
+      </c>
+      <c r="I71">
+        <v>-0.003312858920937152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1260987570085355</v>
+        <v>0.1266651045152805</v>
       </c>
       <c r="C72">
-        <v>-0.09064669716022709</v>
+        <v>-0.05329955279419406</v>
       </c>
       <c r="D72">
-        <v>0.05210700874547011</v>
+        <v>-0.05167347871113982</v>
       </c>
       <c r="E72">
-        <v>-0.03062724862265906</v>
+        <v>-0.02072111159130264</v>
       </c>
       <c r="F72">
-        <v>-0.01309018117796682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09862129180693138</v>
+      </c>
+      <c r="G72">
+        <v>0.109159233630489</v>
+      </c>
+      <c r="H72">
+        <v>0.08780103453314912</v>
+      </c>
+      <c r="I72">
+        <v>0.04632170960088704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2508215145129495</v>
+        <v>0.2618164487837235</v>
       </c>
       <c r="C73">
-        <v>-0.1241752295071597</v>
+        <v>-0.04094997241647721</v>
       </c>
       <c r="D73">
-        <v>-0.02878637561513803</v>
+        <v>0.02194602882375065</v>
       </c>
       <c r="E73">
-        <v>0.1252669958509592</v>
+        <v>-0.105120833853417</v>
       </c>
       <c r="F73">
-        <v>-0.3034545692199437</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.002331891036621395</v>
+      </c>
+      <c r="G73">
+        <v>0.2735783575955172</v>
+      </c>
+      <c r="H73">
+        <v>0.5395507644379476</v>
+      </c>
+      <c r="I73">
+        <v>0.01246012434285652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1304917389208389</v>
+        <v>0.1329857620189708</v>
       </c>
       <c r="C74">
-        <v>-0.03018846961243706</v>
+        <v>-0.04879383051747046</v>
       </c>
       <c r="D74">
-        <v>0.04143736817493787</v>
+        <v>-0.05543984949763527</v>
       </c>
       <c r="E74">
-        <v>-0.02277497169653149</v>
+        <v>-0.008616828561386691</v>
       </c>
       <c r="F74">
-        <v>0.1056609605104931</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05726582023503499</v>
+      </c>
+      <c r="G74">
+        <v>-0.08556498420830953</v>
+      </c>
+      <c r="H74">
+        <v>0.01099374765383591</v>
+      </c>
+      <c r="I74">
+        <v>-0.0475064267110082</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2213633930669467</v>
+        <v>0.2456560320741537</v>
       </c>
       <c r="C75">
-        <v>-0.1003223559762484</v>
+        <v>-0.09409613684048501</v>
       </c>
       <c r="D75">
-        <v>0.08951400897650849</v>
+        <v>-0.06616047823079454</v>
       </c>
       <c r="E75">
-        <v>-0.02151811748545013</v>
+        <v>-0.03249947184772387</v>
       </c>
       <c r="F75">
-        <v>0.1738235238877595</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1323149819986785</v>
+      </c>
+      <c r="G75">
+        <v>-0.165994372231534</v>
+      </c>
+      <c r="H75">
+        <v>-0.009505439560158641</v>
+      </c>
+      <c r="I75">
+        <v>-0.01766132104824239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.240616895708581</v>
+        <v>0.2382014954778723</v>
       </c>
       <c r="C76">
-        <v>-0.1128157735107646</v>
+        <v>-0.09523115255063784</v>
       </c>
       <c r="D76">
-        <v>0.03650756477808036</v>
+        <v>-0.05758186280184101</v>
       </c>
       <c r="E76">
-        <v>-0.07728132146047259</v>
+        <v>0.01076578779767419</v>
       </c>
       <c r="F76">
-        <v>0.197541020924831</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1392679005971941</v>
+      </c>
+      <c r="G76">
+        <v>-0.1862148149472557</v>
+      </c>
+      <c r="H76">
+        <v>-0.02331805297269678</v>
+      </c>
+      <c r="I76">
+        <v>0.03156052774222696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.155660707260385</v>
+        <v>0.1040173374164191</v>
       </c>
       <c r="C77">
-        <v>0.02073645586702812</v>
+        <v>-0.01343229474583325</v>
       </c>
       <c r="D77">
-        <v>0.07111770637565398</v>
+        <v>-0.07983484150795173</v>
       </c>
       <c r="E77">
-        <v>0.004650930432728148</v>
+        <v>-0.01316050153795088</v>
       </c>
       <c r="F77">
-        <v>-0.2058746791715498</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03357279817562545</v>
+      </c>
+      <c r="G77">
+        <v>0.1404052913920651</v>
+      </c>
+      <c r="H77">
+        <v>-0.19179533846075</v>
+      </c>
+      <c r="I77">
+        <v>0.006684670298183974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08326277665398643</v>
+        <v>0.05726456176180456</v>
       </c>
       <c r="C78">
-        <v>0.01008118444125526</v>
+        <v>-0.0135154461833871</v>
       </c>
       <c r="D78">
-        <v>0.07787806240675153</v>
+        <v>-0.06450702463818714</v>
       </c>
       <c r="E78">
-        <v>-0.04929662061612307</v>
+        <v>0.0008778909768539275</v>
       </c>
       <c r="F78">
-        <v>-0.04500352748480139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03349615344145683</v>
+      </c>
+      <c r="G78">
+        <v>0.07465422071954404</v>
+      </c>
+      <c r="H78">
+        <v>-0.02700464516091626</v>
+      </c>
+      <c r="I78">
+        <v>-0.03082402178776223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1595309810988663</v>
+        <v>0.1774533449675597</v>
       </c>
       <c r="C80">
-        <v>0.08814317926747846</v>
+        <v>-0.03556232556130013</v>
       </c>
       <c r="D80">
-        <v>-0.5612463521843418</v>
+        <v>0.06951369062720067</v>
       </c>
       <c r="E80">
-        <v>-0.7776031598152774</v>
+        <v>0.9651037421205972</v>
       </c>
       <c r="F80">
-        <v>-0.1381224129800115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.03424851159139081</v>
+      </c>
+      <c r="G80">
+        <v>0.09913702704587725</v>
+      </c>
+      <c r="H80">
+        <v>0.02905789091529774</v>
+      </c>
+      <c r="I80">
+        <v>0.009915044061679723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1683431365767764</v>
+        <v>0.1791266717996891</v>
       </c>
       <c r="C81">
-        <v>-0.08138294486537237</v>
+        <v>-0.06732545736480337</v>
       </c>
       <c r="D81">
-        <v>0.05128778044424313</v>
+        <v>-0.04453034942624131</v>
       </c>
       <c r="E81">
-        <v>-0.02856296774370749</v>
+        <v>-0.01080639483407237</v>
       </c>
       <c r="F81">
-        <v>0.1819409572255764</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09946966025122934</v>
+      </c>
+      <c r="G81">
+        <v>-0.1240084819986741</v>
+      </c>
+      <c r="H81">
+        <v>-0.02077869029864319</v>
+      </c>
+      <c r="I81">
+        <v>0.03911300501127013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06066145587856628</v>
+        <v>0.04420101561725906</v>
       </c>
       <c r="C83">
-        <v>0.03927011260803134</v>
+        <v>-0.009321659740975909</v>
       </c>
       <c r="D83">
-        <v>0.064348605586295</v>
+        <v>-0.04222376330393368</v>
       </c>
       <c r="E83">
-        <v>-0.008582783444889559</v>
+        <v>-0.01125386528776861</v>
       </c>
       <c r="F83">
-        <v>-0.05654742108878</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01378543902364058</v>
+      </c>
+      <c r="G83">
+        <v>0.05549500597430383</v>
+      </c>
+      <c r="H83">
+        <v>-0.03157606096541336</v>
+      </c>
+      <c r="I83">
+        <v>-0.04301517229220149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.214814398223269</v>
+        <v>0.2295141613910942</v>
       </c>
       <c r="C85">
-        <v>-0.05905789175509346</v>
+        <v>-0.07951449499181037</v>
       </c>
       <c r="D85">
-        <v>0.0758026612879177</v>
+        <v>-0.0959223312947349</v>
       </c>
       <c r="E85">
-        <v>-0.07220647906102608</v>
+        <v>-0.01514874636765614</v>
       </c>
       <c r="F85">
-        <v>0.2366295993413665</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1206864862824653</v>
+      </c>
+      <c r="G85">
+        <v>-0.1864831180983733</v>
+      </c>
+      <c r="H85">
+        <v>-0.02665128569697992</v>
+      </c>
+      <c r="I85">
+        <v>0.002498155273656269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02295769206900749</v>
+        <v>0.01397709768744518</v>
       </c>
       <c r="C86">
-        <v>0.008128177907248796</v>
+        <v>0.004621161818665441</v>
       </c>
       <c r="D86">
-        <v>0.06002501317865922</v>
+        <v>-0.03655324628699051</v>
       </c>
       <c r="E86">
-        <v>-0.02052926133335624</v>
+        <v>-0.004545019103426828</v>
       </c>
       <c r="F86">
-        <v>-0.08290908476185052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.005068829597676079</v>
+      </c>
+      <c r="G86">
+        <v>0.09564893319658151</v>
+      </c>
+      <c r="H86">
+        <v>-0.06458055340338617</v>
+      </c>
+      <c r="I86">
+        <v>-0.03369706320376571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01749873099485214</v>
+        <v>0.02548334683696539</v>
       </c>
       <c r="C87">
-        <v>-0.03994263972342372</v>
+        <v>0.002438402297449347</v>
       </c>
       <c r="D87">
-        <v>-0.0415127168661909</v>
+        <v>0.01413647489244944</v>
       </c>
       <c r="E87">
-        <v>0.03439892756980932</v>
+        <v>-0.002077427269776629</v>
       </c>
       <c r="F87">
-        <v>-0.08615620797698786</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.005793147302006291</v>
+      </c>
+      <c r="G87">
+        <v>0.1003723889479517</v>
+      </c>
+      <c r="H87">
+        <v>0.003775981654293277</v>
+      </c>
+      <c r="I87">
+        <v>-0.008656518461611123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01210948697180979</v>
+        <v>0.03406672165700837</v>
       </c>
       <c r="C88">
-        <v>-0.01183138131898365</v>
+        <v>-0.007969977933631934</v>
       </c>
       <c r="D88">
-        <v>-0.005650160865842561</v>
+        <v>0.005950774944204856</v>
       </c>
       <c r="E88">
-        <v>-0.01901156639934861</v>
+        <v>0.002361698205035202</v>
       </c>
       <c r="F88">
-        <v>-0.01554716364284023</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01235074092090029</v>
+      </c>
+      <c r="G88">
+        <v>0.0001481473840547093</v>
+      </c>
+      <c r="H88">
+        <v>-0.02082499475605391</v>
+      </c>
+      <c r="I88">
+        <v>-0.06057774519899128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.09094351911553344</v>
+        <v>0.1499831984293648</v>
       </c>
       <c r="C89">
-        <v>-0.1348151039803419</v>
+        <v>0.02837690187044177</v>
       </c>
       <c r="D89">
-        <v>-0.2487169189563902</v>
+        <v>0.375570216858306</v>
       </c>
       <c r="E89">
-        <v>0.2170471331513548</v>
+        <v>-0.07153224086522722</v>
       </c>
       <c r="F89">
-        <v>-0.01424131144927664</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.09687929826521748</v>
+      </c>
+      <c r="G89">
+        <v>-0.001952959728337291</v>
+      </c>
+      <c r="H89">
+        <v>-0.09437122819974507</v>
+      </c>
+      <c r="I89">
+        <v>-0.001323682977722765</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08137474717156973</v>
+        <v>0.1094297210911626</v>
       </c>
       <c r="C90">
-        <v>-0.1364511897069565</v>
+        <v>0.02339279147385303</v>
       </c>
       <c r="D90">
-        <v>-0.2566427454105918</v>
+        <v>0.3155225854203388</v>
       </c>
       <c r="E90">
-        <v>0.1547759581625893</v>
+        <v>-0.04043672266368332</v>
       </c>
       <c r="F90">
-        <v>-0.006488333624106868</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.08565456092202553</v>
+      </c>
+      <c r="G90">
+        <v>-0.0351110984842543</v>
+      </c>
+      <c r="H90">
+        <v>-0.06435576813869208</v>
+      </c>
+      <c r="I90">
+        <v>0.006689620487063801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2800038376648203</v>
+        <v>0.2714736976299142</v>
       </c>
       <c r="C91">
-        <v>-0.0699116682896201</v>
+        <v>-0.1010331687727779</v>
       </c>
       <c r="D91">
-        <v>0.1000617649154091</v>
+        <v>-0.1083700602388458</v>
       </c>
       <c r="E91">
-        <v>-0.06722850137621578</v>
+        <v>-0.02228850731614593</v>
       </c>
       <c r="F91">
-        <v>0.2894291436123522</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1187218365577076</v>
+      </c>
+      <c r="G91">
+        <v>-0.2433801290105325</v>
+      </c>
+      <c r="H91">
+        <v>-0.04483418724323068</v>
+      </c>
+      <c r="I91">
+        <v>0.02756549690952071</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1243270775134005</v>
+        <v>0.1881390227706243</v>
       </c>
       <c r="C92">
-        <v>-0.1149429150258493</v>
+        <v>-0.04272317275157921</v>
       </c>
       <c r="D92">
-        <v>-0.2724559781411479</v>
+        <v>0.3264940324946984</v>
       </c>
       <c r="E92">
-        <v>0.1465682415914704</v>
+        <v>-0.02818403965725447</v>
       </c>
       <c r="F92">
-        <v>0.01710170005132219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08211429701018513</v>
+      </c>
+      <c r="G92">
+        <v>-0.09177997108194359</v>
+      </c>
+      <c r="H92">
+        <v>-0.1834112255990483</v>
+      </c>
+      <c r="I92">
+        <v>-0.05635468087063378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.07715995094173336</v>
+        <v>0.13683902838652</v>
       </c>
       <c r="C93">
-        <v>-0.1302368199343978</v>
+        <v>0.01990749979488173</v>
       </c>
       <c r="D93">
-        <v>-0.3140069431737785</v>
+        <v>0.3776602449323184</v>
       </c>
       <c r="E93">
-        <v>0.2101817657914744</v>
+        <v>-0.05916862983498732</v>
       </c>
       <c r="F93">
-        <v>0.01280777435768497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1347268731623968</v>
+      </c>
+      <c r="G93">
+        <v>-0.04365800805728595</v>
+      </c>
+      <c r="H93">
+        <v>-0.009661707548223365</v>
+      </c>
+      <c r="I93">
+        <v>-0.01358778361351972</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2564124719080081</v>
+        <v>0.2869779939275622</v>
       </c>
       <c r="C94">
-        <v>-0.116870145736502</v>
+        <v>-0.08580887621671478</v>
       </c>
       <c r="D94">
-        <v>-0.009809004945623546</v>
+        <v>-0.02662792150919724</v>
       </c>
       <c r="E94">
-        <v>-0.01260739110378685</v>
+        <v>-0.04289958493884295</v>
       </c>
       <c r="F94">
-        <v>0.3690499489683843</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1385457218974311</v>
+      </c>
+      <c r="G94">
+        <v>-0.2801706051885033</v>
+      </c>
+      <c r="H94">
+        <v>-0.0372731229740322</v>
+      </c>
+      <c r="I94">
+        <v>0.1728268657218754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1599947513948026</v>
+        <v>0.1155744580438845</v>
       </c>
       <c r="C95">
-        <v>0.03154010735636514</v>
+        <v>-0.05374367173176549</v>
       </c>
       <c r="D95">
-        <v>0.1882482229484719</v>
+        <v>-0.08916279914332834</v>
       </c>
       <c r="E95">
-        <v>-0.03375156106437666</v>
+        <v>-0.08508387274028055</v>
       </c>
       <c r="F95">
-        <v>-0.01350718387342241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.007558081482463716</v>
+      </c>
+      <c r="G95">
+        <v>0.06625702777404605</v>
+      </c>
+      <c r="H95">
+        <v>-0.1837892823717698</v>
+      </c>
+      <c r="I95">
+        <v>-0.6429117001637101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.184853105619659</v>
+        <v>0.1931554421710754</v>
       </c>
       <c r="C98">
-        <v>-0.06621532282577561</v>
+        <v>-0.06039304360197664</v>
       </c>
       <c r="D98">
-        <v>-0.01314051905971021</v>
+        <v>0.02874869210626825</v>
       </c>
       <c r="E98">
-        <v>0.1038106549166485</v>
+        <v>-0.07275550908951368</v>
       </c>
       <c r="F98">
-        <v>-0.1552936894039689</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01499515889781692</v>
+      </c>
+      <c r="G98">
+        <v>0.2059412923488361</v>
+      </c>
+      <c r="H98">
+        <v>0.3854305144887815</v>
+      </c>
+      <c r="I98">
+        <v>0.00347943231157035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0005775855389304092</v>
+        <v>0.0132364492206719</v>
       </c>
       <c r="C101">
-        <v>-0.01494050088707482</v>
+        <v>0.001732038180214917</v>
       </c>
       <c r="D101">
-        <v>0.05962741631037416</v>
+        <v>-0.02227641777807301</v>
       </c>
       <c r="E101">
-        <v>-0.04894014679418832</v>
+        <v>0.00339758604608699</v>
       </c>
       <c r="F101">
-        <v>-0.04838858879345039</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03770695847068765</v>
+      </c>
+      <c r="G101">
+        <v>0.07968614987925514</v>
+      </c>
+      <c r="H101">
+        <v>-0.121554894336488</v>
+      </c>
+      <c r="I101">
+        <v>0.07017224979688934</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09135575574092202</v>
+        <v>0.1164182830203626</v>
       </c>
       <c r="C102">
-        <v>-0.02201992536782735</v>
+        <v>-0.03173331034342682</v>
       </c>
       <c r="D102">
-        <v>0.04345791059488522</v>
+        <v>-0.04771448420780747</v>
       </c>
       <c r="E102">
-        <v>-0.05365140358890713</v>
+        <v>-0.0004152645854998313</v>
       </c>
       <c r="F102">
-        <v>0.1068451989361106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06415050941146952</v>
+      </c>
+      <c r="G102">
+        <v>-0.1149883813760749</v>
+      </c>
+      <c r="H102">
+        <v>-0.006666726527877823</v>
+      </c>
+      <c r="I102">
+        <v>0.007337549519964324</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02031940716677905</v>
+        <v>0.02612257838937837</v>
       </c>
       <c r="C103">
-        <v>-0.01079624414607781</v>
+        <v>-0.007847942438498661</v>
       </c>
       <c r="D103">
-        <v>-0.0001315365060912552</v>
+        <v>-0.007247796891124821</v>
       </c>
       <c r="E103">
-        <v>-0.00398052223379898</v>
+        <v>0.006592451734122377</v>
       </c>
       <c r="F103">
-        <v>0.02767615666463896</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01487683118819594</v>
+      </c>
+      <c r="G103">
+        <v>-0.01425819023345036</v>
+      </c>
+      <c r="H103">
+        <v>-0.01678883877264022</v>
+      </c>
+      <c r="I103">
+        <v>-0.00144358885029765</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2088084601266381</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9553247663151447</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06124453313639818</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.009268530703149522</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.166580944430508</v>
+      </c>
+      <c r="G104">
+        <v>-0.04184033459810953</v>
+      </c>
+      <c r="H104">
+        <v>0.004788322121817532</v>
+      </c>
+      <c r="I104">
+        <v>0.002165757578678678</v>
       </c>
     </row>
   </sheetData>
